--- a/biology/Zoologie/Anodonthyla_jeanbai/Anodonthyla_jeanbai.xlsx
+++ b/biology/Zoologie/Anodonthyla_jeanbai/Anodonthyla_jeanbai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anodonthyla jeanbai est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anodonthyla jeanbai est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la région d'Anosy à Madagascar. Elle n'est connue que dans le parc national d'Andohahela, à environ 1 548 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la région d'Anosy à Madagascar. Elle n'est connue que dans le parc national d'Andohahela, à environ 1 548 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anodonthyla jeanbai mesure entre 14 et 20 mm. Cette espèce présente une grande diversité chromatique. Son dos est généralement brun clair avec quelques taches brunes irrégulières et une fine ligne longitudinale crème. Certains individus ont une marque sombre, plus ou moins visible, en forme de sablier au niveau de la ceinture scapulaire. Son ventre est jaunâtre[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anodonthyla jeanbai mesure entre 14 et 20 mm. Cette espèce présente une grande diversité chromatique. Son dos est généralement brun clair avec quelques taches brunes irrégulières et une fine ligne longitudinale crème. Certains individus ont une marque sombre, plus ou moins visible, en forme de sablier au niveau de la ceinture scapulaire. Son ventre est jaunâtre.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jean-Baptiste Ramanamanjato, herpétologiste malgache, surnommé « Jean-Ba », qui a aidé l'équipe dans son expédition au parc national Andohahela[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jean-Baptiste Ramanamanjato, herpétologiste malgache, surnommé « Jean-Ba », qui a aidé l'équipe dans son expédition au parc national Andohahela.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vences, Glaw, Köhler &amp; Wollenberg, 2010 : Molecular phylogeny, morphology and bioacoustics reveal five additional species of arboreal microhylid frogs of the genus Anodonthyla from Madagascar. Contributions to Zoology, vol. 79, p. 1-32 (texte intégral).</t>
         </is>
